--- a/Day-10_Logistic Regression & Discriminant Analsysis/Logistic Regression/logit123.xlsx
+++ b/Day-10_Logistic Regression & Discriminant Analsysis/Logistic Regression/logit123.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IACSD\Advanced_analytics\Advanced_analytics\Day-10_Logistic Regression &amp; Discriminant Analsysis\Logistic Regression\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6C216B-E0B1-4F50-8542-5B2210F3D623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>IQ</t>
   </si>
@@ -44,17 +50,11 @@
   <si>
     <t xml:space="preserve">Selection </t>
   </si>
-  <si>
-    <t>Not Selected</t>
-  </si>
-  <si>
-    <t>Selected</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,24 +120,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,1092 +442,1093 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="6" customWidth="1"/>
+    <col min="4" max="7" width="8.88671875" style="6"/>
+    <col min="8" max="8" width="16.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>4.8600000000000003</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>5.6025</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>4.3049999999999997</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>5.4356</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>5.665</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
         <v>5.048</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>5.4175000000000004</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>5.95</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>5.7060000000000004</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>5.65</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
         <v>4.4480000000000004</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>5.6050000000000004</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>5.7774999999999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>5.22</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>5.8925000000000001</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
         <v>4.29</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>5.4175000000000004</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>5.71</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>4.75</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>4.2074999999999996</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
         <v>4.0419999999999998</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>6.3525</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>5.91</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>5.26</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>5.47</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
         <v>4.62</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>5.0199999999999996</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>5.88</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>5.4820000000000002</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>5.7549999999999999</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
         <v>4.6619999999999999</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>5.7925000000000004</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>6.3375000000000004</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>5.81</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>6.2249999999999996</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
         <v>5.28</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>5.585</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>5.86</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>4.976</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>5.9625000000000004</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
         <v>5.3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>6.75</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>6.82</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>6.1820000000000004</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>7</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
         <v>4.484</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>6.0625</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>6.5</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>5.266</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>6.2975000000000003</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
         <v>5.15</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>5.8949999999999996</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>6.89</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>6.3760000000000003</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>6.75</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>4.335</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>4.29</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>5.0860000000000003</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>4.375</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
         <v>5.65</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>7</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>6.3574999999999999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>5.1959999999999997</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>6.5650000000000004</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>2</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
         <v>4.5960000000000001</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>5.27</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>5.5875000000000004</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>5.14</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>5.4249999999999998</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>2</v>
-      </c>
-      <c r="B16" s="6">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
         <v>5.68</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>5.5225</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>6.2874999999999996</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>5.6120000000000001</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>6.3724999999999996</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
         <v>5.2140000000000004</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>5.5425000000000004</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>5.7874999999999996</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>5.1219999999999999</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>6.1</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4">
         <v>3</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>5.274</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>6.04</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>7</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>6.51</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <v>6.7175000000000002</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4">
         <v>3</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>4.8600000000000003</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>5.7925000000000004</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>6.1524999999999999</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>5.476</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <v>5.93</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
         <v>3</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>5.0860000000000003</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>4.7300000000000004</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>3.9824999999999999</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>5.22</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="4">
         <v>4.13</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>2</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
         <v>3</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>5.2119999999999997</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>7</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>6.22</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>5.7460000000000004</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="4">
         <v>6.3849999999999998</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>2</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>4.99</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>5.1675000000000004</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>5.4450000000000003</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>5.484</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <v>5.7374999999999998</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>2</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>5.42</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>5.7074999999999996</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>6.91</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="4">
         <v>6.19</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="4">
         <v>6.6675000000000004</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4">
         <v>5.13</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>5.125</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>5.6749999999999998</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <v>5.49</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="4">
         <v>5.9</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>1</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>6.04</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>6.3975</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <v>4.66</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="4">
         <v>6.1875</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>1</v>
-      </c>
-      <c r="B26" s="6">
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
         <v>3</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>4.9340000000000002</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>6.2074999999999996</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>6.0650000000000004</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>5.5</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>6.4874999999999998</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
         <v>3</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>5.22</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>5.25</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <v>5.6974999999999998</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="4">
         <v>5.0620000000000003</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <v>4.9050000000000002</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>1</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
         <v>5.64</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>6.1875</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="4">
         <v>6.7450000000000001</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>6.27</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="4">
         <v>6.68</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>1</v>
-      </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
         <v>4.9400000000000004</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>5.7275</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="4">
         <v>6.0575000000000001</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="4">
         <v>5.516</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="4">
         <v>6.1325000000000003</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>1</v>
-      </c>
-      <c r="B30" s="6">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
         <v>5.18</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>6.79</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="4">
         <v>6.64</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="4">
         <v>5.8360000000000003</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="4">
         <v>6.415</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>1</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
         <v>5.8339999999999996</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>6.3975</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="4">
         <v>6.1974999999999998</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="4">
         <v>5.18</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="4">
         <v>6.5750000000000002</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>1</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4">
         <v>3</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="4">
         <v>4.97</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>4.3949999999999996</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="4">
         <v>5.3150000000000004</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="4">
         <v>5.7</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="4">
         <v>4.6550000000000002</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>1</v>
-      </c>
-      <c r="B33" s="6">
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4">
         <v>3</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="4">
         <v>5.4080000000000004</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>6.7925000000000004</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="4">
         <v>6.85</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="4">
         <v>6.0960000000000001</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="4">
         <v>6.7750000000000004</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6">
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
         <v>3</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>4.8179999999999996</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>4.9175000000000004</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="4">
         <v>5.4824999999999999</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="4">
         <v>4.6239999999999997</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="4">
         <v>5.5149999999999997</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>2</v>
-      </c>
-      <c r="B35" s="6">
-        <v>2</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
         <v>5.16</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>6.8125</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="4">
         <v>6.7225000000000001</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="4">
         <v>5.82</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="4">
         <v>6.9574999999999996</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>2</v>
-      </c>
-      <c r="B36" s="6">
-        <v>2</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4">
         <v>5.8</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>5.73</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="4">
         <v>6.9824999999999999</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="4">
         <v>6.46</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="4">
         <v>6.75</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>2</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
         <v>5.8140000000000001</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>4.9775</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="4">
         <v>6.8449999999999998</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="4">
         <v>6.41</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="4">
         <v>7</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>2</v>
-      </c>
-      <c r="B38" s="6">
-        <v>1</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
         <v>5</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="4">
         <v>6.0625</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="4">
         <v>6.7675000000000001</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="4">
         <v>6.47</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="4">
         <v>6.9175000000000004</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>1</v>
-      </c>
-      <c r="B39" s="6">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
         <v>5.07</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="4">
         <v>5.75</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="4">
         <v>7</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="4">
         <v>5.17</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="4">
         <v>6.75</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>1</v>
-      </c>
-      <c r="B40" s="6">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
         <v>5.19</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="4">
         <v>5.29</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="4">
         <v>5.9775</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="4">
         <v>5.742</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="4">
         <v>5.5750000000000002</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>2</v>
-      </c>
-      <c r="B41" s="6">
-        <v>2</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4">
         <v>5.3419999999999996</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>4.3559999999999999</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="4">
         <v>4.6669999999999998</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="4">
         <v>6.7770000000000001</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="4">
         <v>5.4560000000000004</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>8</v>
+      <c r="H41" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
